--- a/images.xlsx
+++ b/images.xlsx
@@ -2,18 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Arial"/>
       <color rgb="FF000000"/>
@@ -23,22 +26,33 @@
     <font>
       <name val="Arial"/>
       <color rgb="FF608F66"/>
+      <sz val="10"/>
       <u val="single"/>
     </font>
     <font>
       <name val="Arial"/>
       <color theme="1"/>
+      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Arial"/>
       <color rgb="FF608F66"/>
+      <sz val="10"/>
       <u val="single"/>
     </font>
     <font>
       <name val="Arial"/>
       <color rgb="FF608F66"/>
+      <sz val="10"/>
       <u val="single"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="136"/>
+      <family val="3"/>
+      <sz val="9"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,33 +60,32 @@
       <patternFill/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -145,7 +158,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -335,6 +348,8 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -346,11 +361,11 @@
   </sheetPr>
   <dimension ref="A1:B261"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -3748,5 +3763,6 @@
     <hyperlink ref="A261" r:id="rId260"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>